--- a/clones_validation/CM_conflicts_2.xlsx
+++ b/clones_validation/CM_conflicts_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
   <si>
     <t>nicad</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>author says he designed the answer from several different examples, that seems not to come from qualitas</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Consensus</t>
   </si>
 </sst>
 </file>
@@ -622,61 +631,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80" customWidth="1"/>
+    <col min="7" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="130.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" customWidth="1"/>
+    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" customWidth="1"/>
+    <col min="19" max="19" width="26.83203125" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>7.7010660000000003E-3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>65</v>
-      </c>
-      <c r="E1">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>158</v>
-      </c>
-      <c r="H1">
-        <v>171</v>
-      </c>
-      <c r="I1">
-        <v>14</v>
-      </c>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="S1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="T1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.1099990000000003E-2</v>
+        <v>7.7010660000000003E-3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -688,13 +694,13 @@
         <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="H2">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -712,12 +718,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.136600044</v>
+        <v>4.1099990000000003E-2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -729,13 +735,13 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -753,12 +759,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.54059752000000005</v>
+        <v>0.136600044</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -770,16 +776,16 @@
         <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="H4">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
         <v>3</v>
@@ -794,68 +800,53 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.141154273</v>
+        <v>0.54059752000000005</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>678</v>
+        <v>207</v>
       </c>
       <c r="H5">
-        <v>685</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>83</v>
-      </c>
-      <c r="K5">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>679</v>
-      </c>
-      <c r="N5">
-        <v>684</v>
+        <v>218</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
       </c>
       <c r="P5" t="s">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R5" t="s">
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.225304489</v>
+        <v>0.141154273</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -867,13 +858,13 @@
         <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>678</v>
       </c>
       <c r="H6">
-        <v>27</v>
+        <v>685</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -885,13 +876,13 @@
         <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>679</v>
       </c>
       <c r="N6">
-        <v>26</v>
+        <v>684</v>
       </c>
       <c r="P6" t="s">
         <v>3</v>
@@ -906,12 +897,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.38836541499999999</v>
+        <v>0.225304489</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -923,13 +914,13 @@
         <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -941,13 +932,13 @@
         <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P7" t="s">
         <v>3</v>
@@ -962,109 +953,130 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.38836541499999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>83</v>
+      </c>
+      <c r="K8">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>8.4670687999999994E-2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>447</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>465</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>17</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>448</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>453</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1.3372745E-2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9">
-        <v>52</v>
-      </c>
-      <c r="H9">
-        <v>77</v>
-      </c>
-      <c r="I9">
-        <v>26</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>6.6054689999999999E-2</v>
+        <v>1.3372745E-2</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1076,13 +1088,13 @@
         <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10">
         <v>26</v>
@@ -1099,55 +1111,46 @@
       <c r="S10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.111143645</v>
+        <v>6.6054689999999999E-2</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="H11">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11">
         <v>26</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>59</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11">
-        <v>17</v>
-      </c>
-      <c r="N11">
-        <v>70</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>40</v>
@@ -1155,136 +1158,169 @@
       <c r="S11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>5.6238062999999998E-2</v>
+        <v>0.111143645</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H12">
-        <v>53</v>
-      </c>
-      <c r="I12">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>59</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>70</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>3.3229071999999998E-2</v>
+        <v>5.6238062999999998E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>0.184124278</v>
+        <v>3.3229071999999998E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14">
         <v>35</v>
       </c>
-      <c r="G14">
-        <v>121</v>
-      </c>
-      <c r="H14">
-        <v>134</v>
-      </c>
       <c r="I14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P14" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0.986352385</v>
+        <v>0.184124278</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1296,13 +1332,13 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="H15">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>12</v>
@@ -1320,104 +1356,89 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.47179406299999999</v>
+        <v>0.986352385</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16">
+        <v>84</v>
+      </c>
+      <c r="E16">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="E16">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
       <c r="G16">
-        <v>507</v>
+        <v>218</v>
       </c>
       <c r="H16">
-        <v>518</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>44</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16">
-        <v>509</v>
-      </c>
-      <c r="N16">
-        <v>515</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
         <v>3</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.99971527299999996</v>
+        <v>0.47179406299999999</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>507</v>
+      </c>
+      <c r="H17">
+        <v>518</v>
+      </c>
+      <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17">
-        <v>205</v>
-      </c>
-      <c r="H17">
-        <v>215</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
       <c r="J17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17">
         <v>44</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="N17">
-        <v>210</v>
+        <v>515</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>40</v>
@@ -1431,110 +1452,137 @@
       <c r="S17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
+        <v>0.99971527299999996</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>205</v>
+      </c>
+      <c r="H18">
+        <v>215</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18">
+        <v>205</v>
+      </c>
+      <c r="N18">
+        <v>210</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s">
+        <v>84</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
         <v>0.108635489</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>68</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>76</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>601</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>609</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>47</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>68</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>73</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>46</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>601</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>606</v>
       </c>
-      <c r="P18" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="P19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
         <v>12</v>
       </c>
-      <c r="R18" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="R19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0.10460304099999999</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19">
-        <v>48</v>
-      </c>
-      <c r="H19">
-        <v>57</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="P19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>0.39940190599999997</v>
+        <v>0.10460304099999999</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
@@ -1546,13 +1594,13 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1570,318 +1618,336 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.39940190599999997</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0.34107987499999998</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>176</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>197</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>173</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>195</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>54</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>187</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>192</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>53</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>185</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>190</v>
       </c>
-      <c r="P21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="P22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
         <v>12</v>
       </c>
-      <c r="R21" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0.14199885200000001</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>67</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>78</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>186</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>197</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>57</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>67</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>80</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L23" t="s">
         <v>58</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>186</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>199</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P23" t="s">
         <v>59</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q23" t="s">
         <v>60</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R23" t="s">
         <v>59</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0.24231799000000001</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>20</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>62</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>17</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>38</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>22</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="R24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="T24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0.108532852</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>117</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>127</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>65</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>63</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>76</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>66</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>117</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>128</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>65</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>65</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>76</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25">
-        <v>0.14195872700000001</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25">
-        <v>140</v>
-      </c>
-      <c r="H25">
-        <v>148</v>
-      </c>
-      <c r="I25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25">
-        <v>38</v>
-      </c>
-      <c r="K25">
-        <v>58</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25">
-        <v>132</v>
-      </c>
-      <c r="N25">
-        <v>152</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>0.14195872700000001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26">
+        <v>140</v>
+      </c>
+      <c r="H26">
+        <v>148</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26">
+        <v>38</v>
+      </c>
+      <c r="K26">
+        <v>58</v>
+      </c>
+      <c r="L26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26">
+        <v>132</v>
+      </c>
+      <c r="N26">
+        <v>152</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>5.0249935000000003E-2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26">
-        <v>69</v>
-      </c>
-      <c r="E26">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26">
-        <v>444</v>
-      </c>
-      <c r="H26">
-        <v>456</v>
-      </c>
-      <c r="I26">
-        <v>13</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>8.0833382999999995E-2</v>
+        <v>5.0249935000000003E-2</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1893,13 +1959,13 @@
         <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G27">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="H27">
-        <v>93</v>
+        <v>456</v>
       </c>
       <c r="I27">
         <v>13</v>
@@ -1914,6 +1980,47 @@
         <v>74</v>
       </c>
       <c r="S27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>8.0833382999999995E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>81</v>
+      </c>
+      <c r="H28">
+        <v>93</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s">
         <v>90</v>
       </c>
     </row>
